--- a/doc/aff.xlsx
+++ b/doc/aff.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/Downloads/VariosDescargas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/data/seeagt/static/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="460" windowWidth="17660" windowHeight="17540" tabRatio="978" activeTab="1"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="978"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="14" r:id="rId1"/>
@@ -1049,7 +1049,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1205,7 +1204,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1308,11 +1306,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143272512"/>
-        <c:axId val="2142437840"/>
+        <c:axId val="2125529408"/>
+        <c:axId val="2125526016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143272512"/>
+        <c:axId val="2125529408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142437840"/>
+        <c:crossAx val="2125526016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1363,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142437840"/>
+        <c:axId val="2125526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143272512"/>
+        <c:crossAx val="2125529408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,7 +1426,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3931,7 +3928,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
